--- a/data/trans_orig/P16-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>285933</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262262</v>
+        <v>261426</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>310818</v>
+        <v>309894</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4894926118791849</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4489695773954961</v>
+        <v>0.4475399633921537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5320939104118128</v>
+        <v>0.530512969802437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>597</v>
@@ -765,19 +765,19 @@
         <v>616295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>585136</v>
+        <v>588365</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>645969</v>
+        <v>645046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.668191205190899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6344089627513693</v>
+        <v>0.6379099341586261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7003642925185752</v>
+        <v>0.6993639534250831</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>889</v>
@@ -786,19 +786,19 @@
         <v>902227</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>863187</v>
+        <v>858709</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>938806</v>
+        <v>938164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5989001252880987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5729852959941799</v>
+        <v>0.5700125225152002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6231812792384223</v>
+        <v>0.6227550144150327</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>298208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273323</v>
+        <v>274247</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>321879</v>
+        <v>322715</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5105073881208151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4679060895881871</v>
+        <v>0.4694870301975629</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5510304226045035</v>
+        <v>0.5524600366078461</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>288</v>
@@ -836,19 +836,19 @@
         <v>306038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276364</v>
+        <v>277287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>337197</v>
+        <v>333968</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.331808794809101</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2996357074814248</v>
+        <v>0.300636046574917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3655910372486308</v>
+        <v>0.3620900658413739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>570</v>
@@ -857,19 +857,19 @@
         <v>604247</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>567668</v>
+        <v>568310</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>643287</v>
+        <v>647765</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4010998747119014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3768187207615776</v>
+        <v>0.3772449855849674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.42701470400582</v>
+        <v>0.4299874774847999</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>414692</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>384358</v>
+        <v>385690</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>449011</v>
+        <v>447583</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3847243691262873</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3565825801123671</v>
+        <v>0.3578176794065552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4165630468547377</v>
+        <v>0.4152381903818573</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>582</v>
@@ -982,19 +982,19 @@
         <v>602476</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>569206</v>
+        <v>572363</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>635790</v>
+        <v>635749</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5696970391189938</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5382364710692922</v>
+        <v>0.5412217471572033</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6011985653832519</v>
+        <v>0.6011595103927332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>997</v>
@@ -1003,19 +1003,19 @@
         <v>1017168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>970310</v>
+        <v>969410</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1062742</v>
+        <v>1063555</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4763290771144278</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4543860350731295</v>
+        <v>0.4539642592291595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4976709060456039</v>
+        <v>0.4980514736866904</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>663202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>628883</v>
+        <v>630311</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>693536</v>
+        <v>692204</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6152756308737126</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5834369531452623</v>
+        <v>0.5847618096181426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6434174198876329</v>
+        <v>0.6421823205934447</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -1053,19 +1053,19 @@
         <v>455062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>421748</v>
+        <v>421789</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>488332</v>
+        <v>485175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4303029608810062</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3988014346167481</v>
+        <v>0.3988404896072668</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4617635289307079</v>
+        <v>0.4587782528427967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1086</v>
@@ -1074,19 +1074,19 @@
         <v>1118264</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1072690</v>
+        <v>1071877</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1165122</v>
+        <v>1166022</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5236709228855722</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5023290939543962</v>
+        <v>0.5019485263133097</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5456139649268705</v>
+        <v>0.5460357407708406</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>429217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>394457</v>
+        <v>399067</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>461126</v>
+        <v>462012</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3830326416484943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3520131028303262</v>
+        <v>0.3561270974510325</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4115079401707524</v>
+        <v>0.4122987785938941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>522</v>
@@ -1199,19 +1199,19 @@
         <v>527539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>495827</v>
+        <v>496090</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>557921</v>
+        <v>558865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5307550465031294</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4988499696878987</v>
+        <v>0.4991149623356439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5613223961127933</v>
+        <v>0.5622727540404934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>952</v>
@@ -1220,19 +1220,19 @@
         <v>956756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>903413</v>
+        <v>917305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>999151</v>
+        <v>1009148</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4524703610902671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4272431703570415</v>
+        <v>0.4338132253727465</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4725201600236152</v>
+        <v>0.4772478423645238</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>691359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>659450</v>
+        <v>658564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>726119</v>
+        <v>721509</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6169673583515057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5884920598292477</v>
+        <v>0.5877012214061059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6479868971696731</v>
+        <v>0.6438729025489678</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>460</v>
@@ -1270,19 +1270,19 @@
         <v>466401</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>436019</v>
+        <v>435075</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>498113</v>
+        <v>497850</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4692449534968706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4386776038872066</v>
+        <v>0.4377272459595062</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.501150030312101</v>
+        <v>0.5008850376643561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1132</v>
@@ -1291,19 +1291,19 @@
         <v>1157760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1115365</v>
+        <v>1105368</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1211103</v>
+        <v>1197211</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5475296389097329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5274798399763847</v>
+        <v>0.5227521576354759</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5727568296429585</v>
+        <v>0.5661867746272534</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>168668</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147323</v>
+        <v>148712</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>187919</v>
+        <v>189679</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3771650073659985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3294335973291213</v>
+        <v>0.3325396226358804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.420211826728667</v>
+        <v>0.4241476448693366</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>183</v>
@@ -1416,19 +1416,19 @@
         <v>184121</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164971</v>
+        <v>166044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200996</v>
+        <v>201342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5396952963183307</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4835620384392307</v>
+        <v>0.4867073258345196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5891572559221899</v>
+        <v>0.5901731991542297</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>352</v>
@@ -1437,19 +1437,19 @@
         <v>352790</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>322897</v>
+        <v>325185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>379527</v>
+        <v>380647</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4474992294869271</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4095820924180404</v>
+        <v>0.4124844750881013</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4814149526664677</v>
+        <v>0.4828347953595856</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>278532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259281</v>
+        <v>257521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>299877</v>
+        <v>298488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6228349926340015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.579788173271333</v>
+        <v>0.5758523551306634</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6705664026708787</v>
+        <v>0.6674603773641197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -1487,19 +1487,19 @@
         <v>157037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140162</v>
+        <v>139816</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176187</v>
+        <v>175114</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4603047036816693</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.41084274407781</v>
+        <v>0.4098268008457704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5164379615607693</v>
+        <v>0.5132926741654805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>423</v>
@@ -1508,19 +1508,19 @@
         <v>435568</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>408831</v>
+        <v>407711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>465461</v>
+        <v>463173</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5525007705130729</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5185850473335323</v>
+        <v>0.5171652046404146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5904179075819599</v>
+        <v>0.5875155249118988</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1298510</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1237581</v>
+        <v>1241163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1356585</v>
+        <v>1355944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4020390706401037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3831743230037688</v>
+        <v>0.3842834809678976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4200198633482406</v>
+        <v>0.4198213836983366</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1884</v>
@@ -1633,19 +1633,19 @@
         <v>1930431</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1870789</v>
+        <v>1871191</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1986084</v>
+        <v>1988914</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5823376108862028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5643458793330778</v>
+        <v>0.5644671060993149</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5991260835593775</v>
+        <v>0.5999796025594812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3190</v>
@@ -1654,19 +1654,19 @@
         <v>3228941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3151215</v>
+        <v>3144817</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3311763</v>
+        <v>3311036</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4933613219965585</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4814852704941923</v>
+        <v>0.4805077281176888</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5060158920270404</v>
+        <v>0.5059049098456089</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1931301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1873226</v>
+        <v>1873867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1992230</v>
+        <v>1988648</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5979609293598962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5799801366517594</v>
+        <v>0.5801786163016625</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6168256769962313</v>
+        <v>0.6157165190321023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1350</v>
@@ -1704,19 +1704,19 @@
         <v>1384538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1328885</v>
+        <v>1326055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1444180</v>
+        <v>1443778</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4176623891137972</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4008739164406226</v>
+        <v>0.4000203974405189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4356541206669223</v>
+        <v>0.4355328939006852</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3211</v>
@@ -1725,19 +1725,19 @@
         <v>3315839</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3233017</v>
+        <v>3233744</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3393565</v>
+        <v>3399963</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5066386780034414</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4939841079729596</v>
+        <v>0.4940950901543913</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5185147295058077</v>
+        <v>0.5194922718823115</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>531685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>498066</v>
+        <v>498490</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>565814</v>
+        <v>566290</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5103482752965568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4780783332701662</v>
+        <v>0.4784851384944426</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5431079509942535</v>
+        <v>0.5435644799479059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>761</v>
@@ -2090,19 +2090,19 @@
         <v>824940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>794540</v>
+        <v>795055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>853877</v>
+        <v>855439</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7366011509186348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7094564751176797</v>
+        <v>0.7099159505183184</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7624387641892711</v>
+        <v>0.7638341272768098</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1249</v>
@@ -2111,19 +2111,19 @@
         <v>1356626</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1307695</v>
+        <v>1308636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1403138</v>
+        <v>1404431</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6275628305613248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6049276710060522</v>
+        <v>0.6053630982097241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6490788040920747</v>
+        <v>0.6496772453891035</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>510123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475994</v>
+        <v>475518</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543742</v>
+        <v>543318</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4896517247034433</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4568920490057465</v>
+        <v>0.4564355200520941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5219216667298338</v>
+        <v>0.5215148615055573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -2161,19 +2161,19 @@
         <v>294988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266051</v>
+        <v>264489</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>325388</v>
+        <v>324873</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2633988490813652</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2375612358107288</v>
+        <v>0.2361658727231901</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2905435248823202</v>
+        <v>0.2900840494816815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>758</v>
@@ -2182,19 +2182,19 @@
         <v>805111</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>758599</v>
+        <v>757306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>854042</v>
+        <v>853101</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3724371694386752</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3509211959079254</v>
+        <v>0.3503227546108961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.395072328993948</v>
+        <v>0.3946369017902756</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>467362</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>431089</v>
+        <v>439777</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498144</v>
+        <v>500136</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4791764846554735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4419862127948229</v>
+        <v>0.4508946392407478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5107371616261287</v>
+        <v>0.5127789691511464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>725</v>
@@ -2307,19 +2307,19 @@
         <v>779302</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>747829</v>
+        <v>746857</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>811967</v>
+        <v>808844</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7121713693942615</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.683409162793314</v>
+        <v>0.6825208634642288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7420225742594645</v>
+        <v>0.7391681497900898</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1161</v>
@@ -2328,19 +2328,19 @@
         <v>1246665</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1199835</v>
+        <v>1200713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1291869</v>
+        <v>1292532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6023677763779197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5797406494548829</v>
+        <v>0.5801646444802083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6242098710716303</v>
+        <v>0.6245300073272201</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>507982</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477200</v>
+        <v>475208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>544255</v>
+        <v>535567</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5208235153445265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4892628383738714</v>
+        <v>0.4872210308488536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5580137872051769</v>
+        <v>0.5491053607592522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -2378,19 +2378,19 @@
         <v>314960</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>282295</v>
+        <v>285418</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>346433</v>
+        <v>347405</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2878286306057384</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2579774257405356</v>
+        <v>0.2608318502099107</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3165908372066861</v>
+        <v>0.3174791365357718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>781</v>
@@ -2399,19 +2399,19 @@
         <v>822942</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>777738</v>
+        <v>777075</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>869772</v>
+        <v>868894</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3976322236220803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3757901289283697</v>
+        <v>0.3754699926727798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.420259350545117</v>
+        <v>0.4198353555197916</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>467464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>436481</v>
+        <v>436547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>497195</v>
+        <v>496363</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5286943393672239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4936538152809463</v>
+        <v>0.4937284594001135</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5623195501783363</v>
+        <v>0.5613795709388433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>555</v>
@@ -2524,19 +2524,19 @@
         <v>593069</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>564663</v>
+        <v>564869</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>621667</v>
+        <v>619987</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6779780771464361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6455042955889658</v>
+        <v>0.6457403721852423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7106693862090143</v>
+        <v>0.7087490546896105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>986</v>
@@ -2545,19 +2545,19 @@
         <v>1060533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1017950</v>
+        <v>1016590</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1104559</v>
+        <v>1103417</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6029363099116012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5787266662131009</v>
+        <v>0.5779539385138489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6279658020751553</v>
+        <v>0.6273167691547079</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>416721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>386990</v>
+        <v>387822</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447704</v>
+        <v>447638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4713056606327762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4376804498216637</v>
+        <v>0.4386204290611566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5063461847190537</v>
+        <v>0.5062715405998865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>265</v>
@@ -2595,19 +2595,19 @@
         <v>281693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>253095</v>
+        <v>254775</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>310099</v>
+        <v>309893</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3220219228535638</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2893306137909856</v>
+        <v>0.29125094531039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3544957044110342</v>
+        <v>0.354259627814758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>663</v>
@@ -2616,19 +2616,19 @@
         <v>698414</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>654388</v>
+        <v>655530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>740997</v>
+        <v>742357</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3970636900883989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3720341979248448</v>
+        <v>0.372683230845292</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4212733337868992</v>
+        <v>0.4220460614861511</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>250052</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>227904</v>
+        <v>224753</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274218</v>
+        <v>270660</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4970990981787277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4530678044020083</v>
+        <v>0.446804324180126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5451393266617781</v>
+        <v>0.5380661510946768</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>260</v>
@@ -2741,19 +2741,19 @@
         <v>289096</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>267591</v>
+        <v>268426</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>309071</v>
+        <v>309152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6411982234847885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5935018416568917</v>
+        <v>0.5953539527581933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6855025135593604</v>
+        <v>0.6856820048840401</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>483</v>
@@ -2762,19 +2762,19 @@
         <v>539148</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>507413</v>
+        <v>508575</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>570562</v>
+        <v>571282</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5652093142834026</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5319399366979966</v>
+        <v>0.5331588441144017</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5981416096751349</v>
+        <v>0.5988969443406111</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>252971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>228805</v>
+        <v>232363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>275119</v>
+        <v>278270</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5029009018212723</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4548606733382222</v>
+        <v>0.4619338489053233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5469321955979917</v>
+        <v>0.5531956758198739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>150</v>
@@ -2812,19 +2812,19 @@
         <v>161772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141797</v>
+        <v>141716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>183277</v>
+        <v>182442</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3588017765152116</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3144974864406393</v>
+        <v>0.3143179951159598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.406498158343108</v>
+        <v>0.4046460472418062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>388</v>
@@ -2833,19 +2833,19 @@
         <v>414743</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>383329</v>
+        <v>382609</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>446478</v>
+        <v>445316</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4347906857165974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4018583903248651</v>
+        <v>0.401103055659389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4680600633020035</v>
+        <v>0.4668411558855985</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1716563</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1653576</v>
+        <v>1653452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1778572</v>
+        <v>1777939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5042247912260446</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4857231077519122</v>
+        <v>0.485686618513965</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5224393887622241</v>
+        <v>0.5222536304896064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2301</v>
@@ -2958,19 +2958,19 @@
         <v>2486408</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2427158</v>
+        <v>2425542</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2543884</v>
+        <v>2542229</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.702410731590517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6856726315892514</v>
+        <v>0.6852161938435841</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7186477316263539</v>
+        <v>0.7181802673916323</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3879</v>
@@ -2979,19 +2979,19 @@
         <v>4202971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4123216</v>
+        <v>4118545</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4286378</v>
+        <v>4287678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6052507628382788</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5937656652732819</v>
+        <v>0.5930929151729553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6172618808036513</v>
+        <v>0.6174490336939612</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1687797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1625788</v>
+        <v>1626421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1750784</v>
+        <v>1750908</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4957752087739555</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.477560611237776</v>
+        <v>0.4777463695103937</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5142768922480878</v>
+        <v>0.514313381486035</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>980</v>
@@ -3029,19 +3029,19 @@
         <v>1053412</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>995936</v>
+        <v>997591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1112662</v>
+        <v>1114278</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.297589268409483</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2813522683736461</v>
+        <v>0.281819732608367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3143273684107485</v>
+        <v>0.3147838061564158</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2590</v>
@@ -3050,19 +3050,19 @@
         <v>2741210</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2657803</v>
+        <v>2656503</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2820965</v>
+        <v>2825636</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3947492371617212</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3827381191963487</v>
+        <v>0.3825509663060388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4062343347267182</v>
+        <v>0.4069070848270446</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>567365</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>533512</v>
+        <v>535334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>601553</v>
+        <v>605037</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5029848415213553</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4729729096123422</v>
+        <v>0.4745878519158975</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5332932057655925</v>
+        <v>0.5363819882478341</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>786</v>
@@ -3415,19 +3415,19 @@
         <v>851165</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>816630</v>
+        <v>819064</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>884232</v>
+        <v>884549</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6757635831595104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6483452284218409</v>
+        <v>0.6502775780892098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7020159532574854</v>
+        <v>0.7022676691765369</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1326</v>
@@ -3436,19 +3436,19 @@
         <v>1418531</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1369740</v>
+        <v>1369317</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1467763</v>
+        <v>1468138</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5941345957206914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5736991520801088</v>
+        <v>0.5735219914643095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6147550861940535</v>
+        <v>0.61491176436561</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>560632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>526444</v>
+        <v>522960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>594485</v>
+        <v>592663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4970151584786448</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4667067942344074</v>
+        <v>0.4636180117521659</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5270270903876576</v>
+        <v>0.5254121480841024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -3486,19 +3486,19 @@
         <v>408396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>375329</v>
+        <v>375012</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>442931</v>
+        <v>440497</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3242364168404896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2979840467425146</v>
+        <v>0.2977323308234631</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3516547715781592</v>
+        <v>0.3497224219107902</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>928</v>
@@ -3507,19 +3507,19 @@
         <v>969027</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>919795</v>
+        <v>919420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1017818</v>
+        <v>1018241</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4058654042793086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3852449138059466</v>
+        <v>0.3850882356343899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4263008479198912</v>
+        <v>0.4264780085356905</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>449115</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>416778</v>
+        <v>419834</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>480461</v>
+        <v>480500</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4941708887446386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4585899777927567</v>
+        <v>0.4619520460888527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.528661269991927</v>
+        <v>0.5287049060211606</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>597</v>
@@ -3632,19 +3632,19 @@
         <v>646195</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>613247</v>
+        <v>613161</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>674001</v>
+        <v>676067</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6420381477211019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6093016174041284</v>
+        <v>0.6092161760109879</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6696648824553096</v>
+        <v>0.6717174354650824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1038</v>
@@ -3653,19 +3653,19 @@
         <v>1095310</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1053917</v>
+        <v>1053351</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1137586</v>
+        <v>1135015</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.571873983546075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5502620648221714</v>
+        <v>0.5499664180905737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5939467674408119</v>
+        <v>0.5926041123714351</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>459710</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>428364</v>
+        <v>428325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>492047</v>
+        <v>488991</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5058291112553613</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.471338730008073</v>
+        <v>0.4712950939788391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5414100222072433</v>
+        <v>0.5380479539111472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>354</v>
@@ -3703,19 +3703,19 @@
         <v>360280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>332474</v>
+        <v>330408</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>393228</v>
+        <v>393314</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.357961852278898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3303351175446904</v>
+        <v>0.3282825645349177</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3906983825958718</v>
+        <v>0.3907838239890122</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>794</v>
@@ -3724,19 +3724,19 @@
         <v>819990</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>777714</v>
+        <v>780285</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>861383</v>
+        <v>861949</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.428126016453925</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.406053232559188</v>
+        <v>0.4073958876285648</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4497379351778286</v>
+        <v>0.4500335819094262</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>399549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>369842</v>
+        <v>369646</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>426378</v>
+        <v>434020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.48503160862768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4489681232868303</v>
+        <v>0.4487306864630369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5176008626678812</v>
+        <v>0.526877978979739</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>464</v>
@@ -3849,19 +3849,19 @@
         <v>505616</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>479011</v>
+        <v>480982</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>532265</v>
+        <v>531953</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6557424350889201</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6212380515999472</v>
+        <v>0.6237934081178673</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6903044982116855</v>
+        <v>0.6898989675677146</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>846</v>
@@ -3870,19 +3870,19 @@
         <v>905165</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>864219</v>
+        <v>863531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>943926</v>
+        <v>946994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5675664609908856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5418921260046015</v>
+        <v>0.5414607126498521</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5918708495688155</v>
+        <v>0.5937945953754774</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>424210</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>397381</v>
+        <v>389739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453917</v>
+        <v>454113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.51496839137232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4823991373321189</v>
+        <v>0.473122021020261</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5510318767131696</v>
+        <v>0.5512693135369631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>264</v>
@@ -3920,19 +3920,19 @@
         <v>265443</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238794</v>
+        <v>239106</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>292048</v>
+        <v>290077</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3442575649110799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3096955017883143</v>
+        <v>0.3101010324322854</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3787619484000528</v>
+        <v>0.3762065918821326</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>669</v>
@@ -3941,19 +3941,19 @@
         <v>689653</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650892</v>
+        <v>647824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>730599</v>
+        <v>731287</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4324335390091144</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4081291504311843</v>
+        <v>0.4062054046245226</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4581078739953979</v>
+        <v>0.458539287350148</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>256609</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>232692</v>
+        <v>232646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>279727</v>
+        <v>279363</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5064299967179152</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4592298791292678</v>
+        <v>0.4591392896259989</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5520546090213599</v>
+        <v>0.5513379470179761</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>253</v>
@@ -4066,19 +4066,19 @@
         <v>282684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>259676</v>
+        <v>260796</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>303548</v>
+        <v>304852</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5772619564756548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5302776096796795</v>
+        <v>0.5325654734365426</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6198673126573878</v>
+        <v>0.6225302735973077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>494</v>
@@ -4087,19 +4087,19 @@
         <v>539292</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>505875</v>
+        <v>509510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>571686</v>
+        <v>571294</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5412416096606735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5077038322539961</v>
+        <v>0.511351883611297</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5737527429126221</v>
+        <v>0.5733597161224396</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>250092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>226974</v>
+        <v>227338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>274009</v>
+        <v>274055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4935700032820847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4479453909786402</v>
+        <v>0.4486620529820239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5407701208707326</v>
+        <v>0.5408607103740012</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -4137,19 +4137,19 @@
         <v>207014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186150</v>
+        <v>184846</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230022</v>
+        <v>228902</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4227380435243451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3801326873426127</v>
+        <v>0.3774697264026922</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4697223903203206</v>
+        <v>0.4674345265634571</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>432</v>
@@ -4158,19 +4158,19 @@
         <v>457106</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>424712</v>
+        <v>425104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>490523</v>
+        <v>486888</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4587583903393265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4262472570873779</v>
+        <v>0.4266402838775603</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4922961677460038</v>
+        <v>0.4886481163887029</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1672638</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1613430</v>
+        <v>1621703</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1726360</v>
+        <v>1736733</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4967323750353057</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4791491601826834</v>
+        <v>0.4816058197230103</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5126863674423504</v>
+        <v>0.5157670291567393</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2100</v>
@@ -4283,19 +4283,19 @@
         <v>2285660</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2227672</v>
+        <v>2227233</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2340767</v>
+        <v>2340920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6480848047421418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6316425538305886</v>
+        <v>0.6315180749270743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6637098667288165</v>
+        <v>0.6637533881956176</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3704</v>
@@ -4304,19 +4304,19 @@
         <v>3958299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3884393</v>
+        <v>3874914</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4046848</v>
+        <v>4042904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5741595313351784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5634392805065628</v>
+        <v>0.5620644174835124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5870037194096668</v>
+        <v>0.586431651908131</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1694644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1640922</v>
+        <v>1630549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1753852</v>
+        <v>1745579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5032676249646943</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4873136325576493</v>
+        <v>0.4842329708432606</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5208508398173165</v>
+        <v>0.5183941802769897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1222</v>
@@ -4354,19 +4354,19 @@
         <v>1241132</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1186025</v>
+        <v>1185872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1299120</v>
+        <v>1299559</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3519151952578582</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3362901332711833</v>
+        <v>0.3362466118043825</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3683574461694112</v>
+        <v>0.3684819250729256</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2823</v>
@@ -4375,19 +4375,19 @@
         <v>2935776</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2847227</v>
+        <v>2851171</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3009682</v>
+        <v>3019161</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4258404686648216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4129962805903334</v>
+        <v>0.4135683480918691</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4365607194934372</v>
+        <v>0.4379355825164876</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>267191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>242730</v>
+        <v>240179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>291417</v>
+        <v>290505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5357324745818957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4866875016872146</v>
+        <v>0.4815735077029523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5843085704371651</v>
+        <v>0.5824784635388177</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>620</v>
@@ -4740,19 +4740,19 @@
         <v>411846</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>389207</v>
+        <v>387095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>434835</v>
+        <v>433824</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6604538929740627</v>
+        <v>0.6604538929740625</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6241496589985588</v>
+        <v>0.6207621049347369</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6973201376887985</v>
+        <v>0.695698531899879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>892</v>
@@ -4761,19 +4761,19 @@
         <v>679037</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>642954</v>
+        <v>646275</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>712210</v>
+        <v>712322</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.605029860993888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5728794333487018</v>
+        <v>0.5758382222213676</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6345868538955991</v>
+        <v>0.634687392484008</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>231548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>207322</v>
+        <v>208234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>256009</v>
+        <v>258560</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4642675254181043</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4156914295628343</v>
+        <v>0.4175215364611824</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5133124983127852</v>
+        <v>0.5184264922970477</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -4811,19 +4811,19 @@
         <v>211734</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188745</v>
+        <v>189756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234373</v>
+        <v>236485</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3395461070259372</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3026798623112014</v>
+        <v>0.304301468100121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3758503410014413</v>
+        <v>0.379237895065263</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>424</v>
@@ -4832,19 +4832,19 @@
         <v>443283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>410110</v>
+        <v>409998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>479366</v>
+        <v>476045</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3949701390061121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3654131461044009</v>
+        <v>0.3653126075159921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4271205666512983</v>
+        <v>0.4241617777786324</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>476822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>440382</v>
+        <v>442177</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>510082</v>
+        <v>510678</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4966187679181793</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4586655414472841</v>
+        <v>0.4605350255714846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.531259760944422</v>
+        <v>0.5318799122747692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1103</v>
@@ -4957,19 +4957,19 @@
         <v>697943</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>668475</v>
+        <v>665327</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>727550</v>
+        <v>723882</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6258194458858443</v>
+        <v>0.6258194458858444</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5993967088807574</v>
+        <v>0.5965738685294656</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6523672342126843</v>
+        <v>0.6490786376683723</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1631</v>
@@ -4978,19 +4978,19 @@
         <v>1174765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1123598</v>
+        <v>1130912</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1216797</v>
+        <v>1221672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.566047193577541</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5413930237490978</v>
+        <v>0.544917064533463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5862999942825312</v>
+        <v>0.5886487999600002</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>483315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>450055</v>
+        <v>449459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>519755</v>
+        <v>517960</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5033812320818208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4687402390555785</v>
+        <v>0.4681200877252308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.541334458552716</v>
+        <v>0.5394649744285153</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>503</v>
@@ -5028,19 +5028,19 @@
         <v>417303</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>387696</v>
+        <v>391364</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>446771</v>
+        <v>449919</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3741805541141558</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3476327657873157</v>
+        <v>0.3509213623316274</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4006032911192427</v>
+        <v>0.4034261314705341</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>885</v>
@@ -5049,19 +5049,19 @@
         <v>900618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858586</v>
+        <v>853711</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>951785</v>
+        <v>944471</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.433952806422459</v>
+        <v>0.4339528064224589</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4137000057174692</v>
+        <v>0.4113512000399998</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4586069762509028</v>
+        <v>0.4550829354665368</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>539412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>497869</v>
+        <v>503438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>573829</v>
+        <v>575149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.51545410952898</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4757563935482973</v>
+        <v>0.4810777082044365</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5483424254825353</v>
+        <v>0.5496041112348459</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1018</v>
@@ -5174,19 +5174,19 @@
         <v>652922</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>622869</v>
+        <v>622878</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>682226</v>
+        <v>679450</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6232299096548285</v>
+        <v>0.6232299096548284</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5945438067324973</v>
+        <v>0.5945523250048638</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6512013852230072</v>
+        <v>0.6485516766633123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1618</v>
@@ -5195,19 +5195,19 @@
         <v>1192334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1144324</v>
+        <v>1141001</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1236083</v>
+        <v>1235596</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5693719204686857</v>
+        <v>0.5693719204686859</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.546445752373371</v>
+        <v>0.5448590265410056</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5902633095376809</v>
+        <v>0.5900308364963963</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>507067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>472650</v>
+        <v>471330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>548610</v>
+        <v>543041</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4845458904710199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4516575745174647</v>
+        <v>0.4503958887651541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5242436064517028</v>
+        <v>0.5189222917955636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -5245,19 +5245,19 @@
         <v>394720</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>365416</v>
+        <v>368192</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>424773</v>
+        <v>424764</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3767700903451715</v>
+        <v>0.3767700903451716</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3487986147769929</v>
+        <v>0.3514483233366873</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4054561932675028</v>
+        <v>0.405447674995136</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>927</v>
@@ -5266,19 +5266,19 @@
         <v>901787</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>858038</v>
+        <v>858525</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>949797</v>
+        <v>953120</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4306280795313142</v>
+        <v>0.4306280795313143</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4097366904623189</v>
+        <v>0.4099691635036039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.453554247626629</v>
+        <v>0.4551409734589945</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>537907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>497518</v>
+        <v>504594</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>567503</v>
+        <v>577723</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5511738996283271</v>
+        <v>0.5511738996283272</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5097894383382353</v>
+        <v>0.517040051415245</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5815008047613501</v>
+        <v>0.5919724644506836</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>887</v>
@@ -5391,19 +5391,19 @@
         <v>577315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>550008</v>
+        <v>551413</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>603090</v>
+        <v>605150</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6353598656150029</v>
+        <v>0.6353598656150027</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6053075726608748</v>
+        <v>0.6068539607707452</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6637271404586766</v>
+        <v>0.6659943584135319</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1457</v>
@@ -5412,19 +5412,19 @@
         <v>1115221</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1071135</v>
+        <v>1071386</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1160678</v>
+        <v>1160828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5917639866238207</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.568370684924533</v>
+        <v>0.5685040791192358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6158843470733324</v>
+        <v>0.6159638789399734</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>438022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>408426</v>
+        <v>398206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>478411</v>
+        <v>471335</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4488261003716728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.41849919523865</v>
+        <v>0.4080275355493163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.490210561661765</v>
+        <v>0.4829599485847548</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>434</v>
@@ -5462,19 +5462,19 @@
         <v>331327</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>305552</v>
+        <v>303492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>358634</v>
+        <v>357229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3646401343849973</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3362728595413232</v>
+        <v>0.3340056415864682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3946924273391254</v>
+        <v>0.3931460392292548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>811</v>
@@ -5483,19 +5483,19 @@
         <v>769350</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>723893</v>
+        <v>723743</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>813436</v>
+        <v>813185</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4082360133761793</v>
+        <v>0.4082360133761792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3841156529266677</v>
+        <v>0.3840361210600265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.431629315075467</v>
+        <v>0.4314959208807642</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1821331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1755619</v>
+        <v>1755040</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1887172</v>
+        <v>1886505</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5231780115070115</v>
+        <v>0.5231780115070116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5043020963497088</v>
+        <v>0.5041357220779298</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5420908874041076</v>
+        <v>0.5418992621666177</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3628</v>
@@ -5608,19 +5608,19 @@
         <v>2340025</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2281213</v>
+        <v>2287063</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2396958</v>
+        <v>2396796</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6332761326210992</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6173598381308084</v>
+        <v>0.6189430716709803</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6486837599262053</v>
+        <v>0.6486398956062209</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5598</v>
@@ -5629,19 +5629,19 @@
         <v>4161357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4085172</v>
+        <v>4080064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4251435</v>
+        <v>4247258</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5798672976190715</v>
+        <v>0.5798672976190716</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5692512104667586</v>
+        <v>0.568539494201955</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5924193665973175</v>
+        <v>0.591837248321803</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1659953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1594112</v>
+        <v>1594779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1725665</v>
+        <v>1726244</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4768219884929884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4579091125958925</v>
+        <v>0.4581007378333824</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4956979036502912</v>
+        <v>0.4958642779220701</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1676</v>
@@ -5679,19 +5679,19 @@
         <v>1355085</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1298152</v>
+        <v>1298314</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1413897</v>
+        <v>1408047</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3667238673789007</v>
+        <v>0.3667238673789008</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3513162400737946</v>
+        <v>0.3513601043937791</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3826401618691916</v>
+        <v>0.3810569283290198</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3047</v>
@@ -5700,19 +5700,19 @@
         <v>3015038</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2924960</v>
+        <v>2929137</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3091223</v>
+        <v>3096331</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4201327023809284</v>
+        <v>0.4201327023809285</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4075806334026824</v>
+        <v>0.4081627516781969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4307487895332414</v>
+        <v>0.4314605057980448</v>
       </c>
     </row>
     <row r="18">
